--- a/biology/Botanique/Drosanthemum/Drosanthemum.xlsx
+++ b/biology/Botanique/Drosanthemum/Drosanthemum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Drosanthemum est un genre de plantes de la famille des Aizoaceae.
 </t>
@@ -511,18 +523,20 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (29 novembre 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (29 novembre 2021) :
 Drosanthemum candens (Haw.) Schwantes
 Drosanthemum floribundum (Haw.) Schwantes
 Drosanthemum hispidum (L.) Schwantes
 Drosanthemum speciosum (Haw.) Schwant.
-Selon ITIS      (29 novembre 2021)[2] :
+Selon ITIS      (29 novembre 2021) :
 Drosanthemum floribundum (Haw.) Schwantes
 Drosanthemum hispidum (L.) Schwantes
 Drosanthemum speciosum (Haw.) Schwantes
-Selon NCBI  (29 novembre 2021)[3] :
+Selon NCBI  (29 novembre 2021) :
 Drosanthemum acuminatum L.Bolus
 Drosanthemum acutifolium L.Bolus, 1930
 Drosanthemum albiflorum (L.Bolus) Schwantes, 1927
@@ -594,7 +608,7 @@
 Drosanthemum thudichumii L.Bolus
 Drosanthemum tuberculiferum L.Bolus, 1965
 Drosanthemum uniondalense H.E.K.Hartmann, 2011
-Selon The Plant List            (29 novembre 2021)[4] :
+Selon The Plant List            (29 novembre 2021) :
 Drosanthemum acuminatum L.Bolus
 Drosanthemum acutifolium (L.Bolus) L.Bolus
 Drosanthemum albens L.Bolus
@@ -707,7 +721,7 @@
 Drosanthemum wittebergense L.Bolus
 Drosanthemum worcesterense L.Bolus
 Drosanthemum zygophylloides (L.Bolus) L.Bolus
-Selon Tropicos                                           (29 novembre 2021)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (29 novembre 2021) (Attention liste brute contenant possiblement des synonymes) :
 Drosanthemum acuminatum L. Bolus
 Drosanthemum acutifolium L. Bolus
 Drosanthemum albens L. Bolus
